--- a/基礎言語総合課題/スケジュール_括弧チェッカー.xlsx
+++ b/基礎言語総合課題/スケジュール_括弧チェッカー.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-nakamura\Desktop\基礎言語総合課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-nakamura\Documents\1st-training\基礎言語総合課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール (20170421)" sheetId="3" r:id="rId1"/>
@@ -1102,6 +1102,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1124,16 +1134,6 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1156,16 +1156,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>223839</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1180,8 +1180,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810626" y="4057649"/>
-          <a:ext cx="566738" cy="123825"/>
+          <a:off x="9172575" y="4152898"/>
+          <a:ext cx="161925" cy="133352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,7 +1316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6186487" y="1552575"/>
+          <a:off x="6348412" y="1552575"/>
           <a:ext cx="333375" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1360,16 +1360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1384,8 +1384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153399" y="3443287"/>
-          <a:ext cx="657226" cy="128587"/>
+          <a:off x="8963025" y="3443286"/>
+          <a:ext cx="161925" cy="128589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,9 +1435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1452,8 +1452,76 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734174" y="2257424"/>
-          <a:ext cx="814389" cy="119063"/>
+          <a:off x="6896099" y="2257424"/>
+          <a:ext cx="666751" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D9761A-5BED-4C0B-AF2C-88CF0C9CAC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7567613" y="2495550"/>
+          <a:ext cx="223838" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,22 +1565,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D9761A-5BED-4C0B-AF2C-88CF0C9CAC0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FE4A6E-14E9-408E-89AA-16340B53356E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,8 +1588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7558088" y="2495550"/>
-          <a:ext cx="223838" cy="114300"/>
+          <a:off x="7829550" y="2747962"/>
+          <a:ext cx="581025" cy="100014"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1564,84 +1632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FE4A6E-14E9-408E-89AA-16340B53356E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781925" y="2738436"/>
-          <a:ext cx="123825" cy="114301"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>233363</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1656,8 +1656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7920038" y="3214688"/>
-          <a:ext cx="223838" cy="114300"/>
+          <a:off x="8396288" y="3205163"/>
+          <a:ext cx="547688" cy="119062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,16 +1768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>233363</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1792,8 +1792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9382126" y="4395786"/>
-          <a:ext cx="552449" cy="123827"/>
+          <a:off x="9334500" y="4405312"/>
+          <a:ext cx="219075" cy="128588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,16 +1836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1860,8 +1860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9944101" y="4643437"/>
-          <a:ext cx="338137" cy="119064"/>
+          <a:off x="9534525" y="4643437"/>
+          <a:ext cx="242888" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1904,16 +1904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>4764</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>4764</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1928,8 +1928,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10301289" y="5110162"/>
-          <a:ext cx="228600" cy="119064"/>
+          <a:off x="9777414" y="5110162"/>
+          <a:ext cx="681036" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,11 +2307,11 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="76">
+      <c r="I1" s="82">
         <v>42846</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -2346,95 +2346,95 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="88">
+      <c r="L2" s="76">
         <v>42846</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88">
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="76">
         <v>42849</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="88">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="76">
         <v>42850</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="88">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="76">
         <v>42851</v>
       </c>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="88">
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="76">
         <v>42852</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="88">
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="76">
         <v>42853</v>
       </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="88">
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="76">
         <v>42857</v>
       </c>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="93"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="81"/>
       <c r="AR2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="56">
         <v>1</v>
       </c>
@@ -3713,14 +3713,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E3"/>
@@ -3730,6 +3722,14 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3745,7 +3745,7 @@
   <dimension ref="A1:AR24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -3776,11 +3776,11 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="76">
+      <c r="I1" s="82">
         <v>42856</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -3815,95 +3815,95 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="88">
+      <c r="L2" s="76">
         <v>42846</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88">
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="76">
         <v>42849</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="88">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="76">
         <v>42850</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="88">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="76">
         <v>42851</v>
       </c>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="88">
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="76">
         <v>42852</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="88">
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="76">
         <v>42853</v>
       </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="88">
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="76">
         <v>42857</v>
       </c>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="93"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="81"/>
       <c r="AR2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="56">
         <v>1</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>42850</v>
       </c>
       <c r="I12" s="26">
-        <v>42850</v>
+        <v>42851</v>
       </c>
       <c r="J12" s="16">
         <v>1</v>
@@ -4584,7 +4584,7 @@
         <v>42851</v>
       </c>
       <c r="I14" s="26">
-        <v>42851</v>
+        <v>42852</v>
       </c>
       <c r="J14" s="16">
         <v>1</v>
@@ -5182,6 +5182,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E3"/>
@@ -5191,14 +5199,6 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基礎言語総合課題/スケジュール_括弧チェッカー.xlsx
+++ b/基礎言語総合課題/スケジュール_括弧チェッカー.xlsx
@@ -1102,16 +1102,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1134,6 +1124,16 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1910,10 +1910,10 @@
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1929,7 +1929,75 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9777414" y="5110162"/>
-          <a:ext cx="681036" cy="119063"/>
+          <a:ext cx="909636" cy="128588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12583F87-3BA5-4BE6-843B-91B631B0F69A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10696576" y="5372101"/>
+          <a:ext cx="438149" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,11 +2375,11 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="82">
+      <c r="I1" s="76">
         <v>42846</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -2346,95 +2414,95 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="76">
+      <c r="L2" s="88">
         <v>42846</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="76">
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="88">
         <v>42849</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="76">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="88">
         <v>42850</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="76">
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="88">
         <v>42851</v>
       </c>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="76">
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="88">
         <v>42852</v>
       </c>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="76">
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="88">
         <v>42853</v>
       </c>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="76">
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="88">
         <v>42857</v>
       </c>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="81"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="93"/>
       <c r="AR2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="89"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="56">
         <v>1</v>
       </c>
@@ -3713,6 +3781,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E3"/>
@@ -3722,14 +3798,6 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3744,8 +3812,8 @@
   </sheetPr>
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -3776,11 +3844,11 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="82">
+      <c r="I1" s="76">
         <v>42856</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -3815,95 +3883,95 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="76">
+      <c r="L2" s="88">
         <v>42846</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="76">
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="88">
         <v>42849</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="76">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="88">
         <v>42850</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="76">
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="88">
         <v>42851</v>
       </c>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="76">
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="88">
         <v>42852</v>
       </c>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="76">
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="88">
         <v>42853</v>
       </c>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="76">
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="88">
         <v>42857</v>
       </c>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="81"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="93"/>
       <c r="AR2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="89"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="56">
         <v>1</v>
       </c>
@@ -5182,14 +5250,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E3"/>
@@ -5199,6 +5259,14 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
